--- a/c2.xlsx
+++ b/c2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0280D2-B47D-4A53-89E9-E349AFDFC1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D1FB2-BF07-4A32-BD54-E8D6D3AF8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_casesal" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -371,13 +371,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -397,13 +391,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:K13" totalsRowShown="0">
-  <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -708,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -788,7 +776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -802,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -816,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -830,7 +818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -844,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>34</v>
       </c>
@@ -881,7 +869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>19</v>
       </c>
@@ -918,7 +906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -932,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>22</v>
       </c>
@@ -946,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>26</v>
       </c>
@@ -960,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -974,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>23</v>
       </c>
@@ -1045,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1121,11 +1109,14 @@
       <c r="H2" t="s">
         <v>61</v>
       </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
       <c r="K2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>63</v>
       </c>
@@ -1139,7 +1130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -1227,7 +1218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>77</v>
       </c>
@@ -1298,7 +1289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1322,6 +1313,9 @@
       </c>
       <c r="H13" t="s">
         <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
       </c>
       <c r="K13" t="s">
         <v>92</v>
